--- a/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
+++ b/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>title</t>
   </si>

--- a/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
+++ b/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>title</t>
   </si>

--- a/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
+++ b/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>title</t>
   </si>

--- a/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
+++ b/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>title</t>
   </si>

--- a/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
+++ b/src/main/java/com/ebfs/qa/testdata/EBFSTestData.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
